--- a/Docs/Прототип перекрестка большой.xlsx
+++ b/Docs/Прототип перекрестка большой.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>центр</t>
   </si>
@@ -96,17 +96,23 @@
     <t>21 клеток</t>
   </si>
   <si>
-    <t>вв</t>
+    <t>up</t>
   </si>
   <si>
-    <t>up</t>
+    <t>клетки кольца</t>
+  </si>
+  <si>
+    <t>клетки дороги</t>
+  </si>
+  <si>
+    <t>клетки появления объектов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +185,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,13 +275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -713,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -721,30 +741,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2153,13 +2183,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:rowOff>80681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>26896</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>80686</xdr:rowOff>
+      <xdr:rowOff>89650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2168,7 +2198,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5100918" y="2330823"/>
+          <a:off x="5100918" y="2339787"/>
           <a:ext cx="950260" cy="8969"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2198,15 +2228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>17932</xdr:colOff>
+      <xdr:colOff>35862</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>89653</xdr:rowOff>
+      <xdr:rowOff>71723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>26895</xdr:colOff>
+      <xdr:colOff>44825</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>89654</xdr:rowOff>
+      <xdr:rowOff>71724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2215,7 +2245,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5100920" y="3854829"/>
+          <a:off x="5118850" y="3836899"/>
           <a:ext cx="950257" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3326,7 +3356,7 @@
   <dimension ref="A1:AT41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="AM25" sqref="AM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3436,37 +3466,37 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="67"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="64"/>
       <c r="AP2" t="s">
         <v>16</v>
       </c>
@@ -3481,7 +3511,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
@@ -3511,7 +3541,7 @@
       <c r="AC3" s="41"/>
       <c r="AD3" s="41"/>
       <c r="AE3" s="41"/>
-      <c r="AF3" s="68"/>
+      <c r="AF3" s="65"/>
       <c r="AP3" t="s">
         <v>15</v>
       </c>
@@ -3529,7 +3559,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
@@ -3559,9 +3589,9 @@
       <c r="AC4" s="41"/>
       <c r="AD4" s="41"/>
       <c r="AE4" s="41"/>
-      <c r="AF4" s="68"/>
+      <c r="AF4" s="65"/>
       <c r="AP4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="s">
         <v>21</v>
@@ -3574,7 +3604,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -3604,13 +3634,21 @@
       <c r="AC5" s="41"/>
       <c r="AD5" s="41"/>
       <c r="AE5" s="41"/>
-      <c r="AF5" s="68"/>
+      <c r="AF5" s="65"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="81"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -3640,13 +3678,17 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="41"/>
-      <c r="AF6" s="68"/>
+      <c r="AF6" s="65"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
@@ -3665,8 +3707,8 @@
       <c r="R7" s="42"/>
       <c r="S7" s="42"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="74" t="s">
-        <v>24</v>
+      <c r="U7" s="70" t="s">
+        <v>23</v>
       </c>
       <c r="V7" s="46"/>
       <c r="W7" s="46"/>
@@ -3678,13 +3720,17 @@
       <c r="AC7" s="46"/>
       <c r="AD7" s="41"/>
       <c r="AE7" s="41"/>
-      <c r="AF7" s="68"/>
+      <c r="AF7" s="65"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
@@ -3704,8 +3750,8 @@
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
       <c r="U8" s="43"/>
-      <c r="V8" s="74" t="s">
-        <v>24</v>
+      <c r="V8" s="70" t="s">
+        <v>23</v>
       </c>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -3716,13 +3762,14 @@
       <c r="AC8" s="46"/>
       <c r="AD8" s="46"/>
       <c r="AE8" s="46"/>
-      <c r="AF8" s="68"/>
+      <c r="AF8" s="65"/>
+      <c r="AP8" s="86"/>
     </row>
     <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -3742,10 +3789,10 @@
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
       <c r="U9" s="44"/>
-      <c r="V9" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="W9" s="42"/>
+      <c r="V9" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="70"/>
       <c r="X9" s="46"/>
       <c r="Y9" s="46"/>
       <c r="Z9" s="46"/>
@@ -3754,13 +3801,13 @@
       <c r="AC9" s="46"/>
       <c r="AD9" s="46"/>
       <c r="AE9" s="46"/>
-      <c r="AF9" s="68"/>
+      <c r="AF9" s="65"/>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
@@ -3781,8 +3828,8 @@
       <c r="T10" s="53"/>
       <c r="U10" s="53"/>
       <c r="V10" s="44"/>
-      <c r="W10" s="73" t="s">
-        <v>24</v>
+      <c r="W10" s="69" t="s">
+        <v>23</v>
       </c>
       <c r="X10" s="42"/>
       <c r="Y10" s="46"/>
@@ -3792,13 +3839,13 @@
       <c r="AC10" s="46"/>
       <c r="AD10" s="46"/>
       <c r="AE10" s="46"/>
-      <c r="AF10" s="68"/>
+      <c r="AF10" s="65"/>
     </row>
     <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
@@ -3819,8 +3866,8 @@
       <c r="T11" s="46"/>
       <c r="U11" s="50"/>
       <c r="V11" s="45"/>
-      <c r="W11" s="72" t="s">
-        <v>24</v>
+      <c r="W11" s="68" t="s">
+        <v>23</v>
       </c>
       <c r="X11" s="43"/>
       <c r="Y11" s="42"/>
@@ -3830,13 +3877,13 @@
       <c r="AC11" s="46"/>
       <c r="AD11" s="46"/>
       <c r="AE11" s="46"/>
-      <c r="AF11" s="68"/>
+      <c r="AF11" s="65"/>
     </row>
     <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
@@ -3858,7 +3905,7 @@
       <c r="U12" s="46"/>
       <c r="V12" s="46"/>
       <c r="W12" s="45"/>
-      <c r="X12" s="72" t="s">
+      <c r="X12" s="68" t="s">
         <v>23</v>
       </c>
       <c r="Y12" s="43"/>
@@ -3868,17 +3915,17 @@
       <c r="AC12" s="46"/>
       <c r="AD12" s="46"/>
       <c r="AE12" s="46"/>
-      <c r="AF12" s="68"/>
+      <c r="AF12" s="65"/>
     </row>
     <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="42"/>
       <c r="H13" s="43"/>
       <c r="I13" s="44"/>
@@ -3896,27 +3943,27 @@
       <c r="U13" s="46"/>
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
-      <c r="X13" s="71" t="s">
+      <c r="X13" s="67" t="s">
         <v>23</v>
       </c>
       <c r="Y13" s="44"/>
       <c r="Z13" s="43"/>
       <c r="AA13" s="42"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="69"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="76"/>
     </row>
     <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
       <c r="I14" s="44"/>
@@ -3934,25 +3981,25 @@
       <c r="U14" s="46"/>
       <c r="V14" s="46"/>
       <c r="W14" s="46"/>
-      <c r="X14" s="71"/>
+      <c r="X14" s="67"/>
       <c r="Y14" s="44"/>
       <c r="Z14" s="43"/>
       <c r="AA14" s="42"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="69"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="76"/>
     </row>
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
       <c r="I15" s="44"/>
@@ -3974,21 +4021,21 @@
       <c r="Y15" s="44"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="42"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="69"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="76"/>
     </row>
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
@@ -4010,17 +4057,17 @@
       <c r="Y16" s="44"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="42"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="69"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="76"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -4052,17 +4099,17 @@
       <c r="AC17" s="46"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
-      <c r="AF17" s="68"/>
+      <c r="AF17" s="65"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="42"/>
       <c r="H18" s="43"/>
       <c r="I18" s="44"/>
@@ -4084,21 +4131,21 @@
       <c r="Y18" s="44"/>
       <c r="Z18" s="43"/>
       <c r="AA18" s="42"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="69"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="74"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="42"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
@@ -4120,21 +4167,21 @@
       <c r="Y19" s="44"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="42"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="69"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="74"/>
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
       <c r="I20" s="44"/>
@@ -4156,21 +4203,21 @@
       <c r="Y20" s="44"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="42"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="69"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="74"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="42"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
@@ -4192,17 +4239,17 @@
       <c r="Y21" s="44"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="42"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="69"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="74"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -4232,13 +4279,13 @@
       <c r="AC22" s="46"/>
       <c r="AD22" s="46"/>
       <c r="AE22" s="46"/>
-      <c r="AF22" s="68"/>
+      <c r="AF22" s="65"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
@@ -4268,13 +4315,13 @@
       <c r="AC23" s="46"/>
       <c r="AD23" s="46"/>
       <c r="AE23" s="46"/>
-      <c r="AF23" s="68"/>
+      <c r="AF23" s="65"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
@@ -4304,13 +4351,13 @@
       <c r="AC24" s="46"/>
       <c r="AD24" s="46"/>
       <c r="AE24" s="46"/>
-      <c r="AF24" s="68"/>
+      <c r="AF24" s="65"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
@@ -4340,13 +4387,13 @@
       <c r="AC25" s="46"/>
       <c r="AD25" s="46"/>
       <c r="AE25" s="46"/>
-      <c r="AF25" s="68"/>
+      <c r="AF25" s="65"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
@@ -4376,13 +4423,13 @@
       <c r="AC26" s="46"/>
       <c r="AD26" s="46"/>
       <c r="AE26" s="46"/>
-      <c r="AF26" s="68"/>
+      <c r="AF26" s="65"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
@@ -4412,13 +4459,13 @@
       <c r="AC27" s="41"/>
       <c r="AD27" s="41"/>
       <c r="AE27" s="41"/>
-      <c r="AF27" s="68"/>
+      <c r="AF27" s="65"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
@@ -4448,13 +4495,13 @@
       <c r="AC28" s="41"/>
       <c r="AD28" s="41"/>
       <c r="AE28" s="41"/>
-      <c r="AF28" s="68"/>
+      <c r="AF28" s="65"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
@@ -4484,13 +4531,13 @@
       <c r="AC29" s="41"/>
       <c r="AD29" s="41"/>
       <c r="AE29" s="41"/>
-      <c r="AF29" s="68"/>
+      <c r="AF29" s="65"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
@@ -4500,16 +4547,16 @@
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
       <c r="V30" s="41"/>
       <c r="W30" s="41"/>
       <c r="X30" s="41"/>
@@ -4520,13 +4567,13 @@
       <c r="AC30" s="41"/>
       <c r="AD30" s="41"/>
       <c r="AE30" s="41"/>
-      <c r="AF30" s="68"/>
+      <c r="AF30" s="65"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="62"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
@@ -4556,43 +4603,43 @@
       <c r="AC31" s="41"/>
       <c r="AD31" s="41"/>
       <c r="AE31" s="41"/>
-      <c r="AF31" s="68"/>
+      <c r="AF31" s="65"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="70"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="66"/>
     </row>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Docs/Прототип перекрестка большой.xlsx
+++ b/Docs/Прототип перекрестка большой.xlsx
@@ -3356,7 +3356,7 @@
   <dimension ref="A1:AT41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM25" sqref="AM25"/>
+      <selection activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Docs/Прототип перекрестка большой.xlsx
+++ b/Docs/Прототип перекрестка большой.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>центр</t>
   </si>
@@ -81,24 +81,6 @@
     <t>расшифровка</t>
   </si>
   <si>
-    <t>метрика</t>
-  </si>
-  <si>
-    <t>размер клеки</t>
-  </si>
-  <si>
-    <t>0,52см</t>
-  </si>
-  <si>
-    <t>радиус кольца</t>
-  </si>
-  <si>
-    <t>21 клеток</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
     <t>клетки кольца</t>
   </si>
   <si>
@@ -106,6 +88,9 @@
   </si>
   <si>
     <t>клетки появления объектов</t>
+  </si>
+  <si>
+    <t>переход</t>
   </si>
 </sst>
 </file>
@@ -3353,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT41"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP22" sqref="AP22"/>
+      <selection activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3367,7 +3352,7 @@
     <col min="45" max="45" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -3462,7 +3447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3503,11 +3488,8 @@
       <c r="AQ2" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3548,14 +3530,8 @@
       <c r="AQ3" t="s">
         <v>0</v>
       </c>
-      <c r="AS3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3590,17 +3566,12 @@
       <c r="AD4" s="41"/>
       <c r="AE4" s="41"/>
       <c r="AF4" s="65"/>
-      <c r="AP4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP4" s="83"/>
+      <c r="AQ4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3639,12 +3610,12 @@
       <c r="AM5" s="81"/>
       <c r="AN5" s="82"/>
       <c r="AO5" s="81"/>
-      <c r="AP5" s="83"/>
+      <c r="AP5" s="84"/>
       <c r="AQ5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3679,12 +3650,12 @@
       <c r="AD6" s="41"/>
       <c r="AE6" s="41"/>
       <c r="AF6" s="65"/>
-      <c r="AP6" s="84"/>
+      <c r="AP6" s="85"/>
       <c r="AQ6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3707,9 +3678,7 @@
       <c r="R7" s="42"/>
       <c r="S7" s="42"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="70" t="s">
-        <v>23</v>
-      </c>
+      <c r="U7" s="70"/>
       <c r="V7" s="46"/>
       <c r="W7" s="46"/>
       <c r="X7" s="46"/>
@@ -3721,12 +3690,12 @@
       <c r="AD7" s="41"/>
       <c r="AE7" s="41"/>
       <c r="AF7" s="65"/>
-      <c r="AP7" s="85"/>
+      <c r="AP7" s="86"/>
       <c r="AQ7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3750,9 +3719,7 @@
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
       <c r="U8" s="43"/>
-      <c r="V8" s="70" t="s">
-        <v>23</v>
-      </c>
+      <c r="V8" s="70"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>
@@ -3763,9 +3730,8 @@
       <c r="AD8" s="46"/>
       <c r="AE8" s="46"/>
       <c r="AF8" s="65"/>
-      <c r="AP8" s="86"/>
-    </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3789,9 +3755,7 @@
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
       <c r="U9" s="44"/>
-      <c r="V9" s="69" t="s">
-        <v>23</v>
-      </c>
+      <c r="V9" s="69"/>
       <c r="W9" s="70"/>
       <c r="X9" s="46"/>
       <c r="Y9" s="46"/>
@@ -3803,7 +3767,7 @@
       <c r="AE9" s="46"/>
       <c r="AF9" s="65"/>
     </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3828,9 +3792,7 @@
       <c r="T10" s="53"/>
       <c r="U10" s="53"/>
       <c r="V10" s="44"/>
-      <c r="W10" s="69" t="s">
-        <v>23</v>
-      </c>
+      <c r="W10" s="69"/>
       <c r="X10" s="42"/>
       <c r="Y10" s="46"/>
       <c r="Z10" s="46"/>
@@ -3841,7 +3803,7 @@
       <c r="AE10" s="46"/>
       <c r="AF10" s="65"/>
     </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3866,9 +3828,7 @@
       <c r="T11" s="46"/>
       <c r="U11" s="50"/>
       <c r="V11" s="45"/>
-      <c r="W11" s="68" t="s">
-        <v>23</v>
-      </c>
+      <c r="W11" s="68"/>
       <c r="X11" s="43"/>
       <c r="Y11" s="42"/>
       <c r="Z11" s="46"/>
@@ -3879,7 +3839,7 @@
       <c r="AE11" s="46"/>
       <c r="AF11" s="65"/>
     </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3905,9 +3865,7 @@
       <c r="U12" s="46"/>
       <c r="V12" s="46"/>
       <c r="W12" s="45"/>
-      <c r="X12" s="68" t="s">
-        <v>23</v>
-      </c>
+      <c r="X12" s="68"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="42"/>
       <c r="AA12" s="46"/>
@@ -3917,7 +3875,7 @@
       <c r="AE12" s="46"/>
       <c r="AF12" s="65"/>
     </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3943,9 +3901,7 @@
       <c r="U13" s="46"/>
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
-      <c r="X13" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="X13" s="67"/>
       <c r="Y13" s="44"/>
       <c r="Z13" s="43"/>
       <c r="AA13" s="42"/>
@@ -3955,7 +3911,7 @@
       <c r="AE13" s="73"/>
       <c r="AF13" s="76"/>
     </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3991,7 +3947,7 @@
       <c r="AE14" s="73"/>
       <c r="AF14" s="76"/>
     </row>
-    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4027,7 +3983,7 @@
       <c r="AE15" s="73"/>
       <c r="AF15" s="76"/>
     </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>

--- a/Docs/Прототип перекрестка большой.xlsx
+++ b/Docs/Прототип перекрестка большой.xlsx
@@ -3341,7 +3341,7 @@
   <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR20" sqref="AR20"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Docs/Прототип перекрестка большой.xlsx
+++ b/Docs/Прототип перекрестка большой.xlsx
@@ -2351,6 +2351,1040 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Прямая со стрелкой 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4778188" y="2357718"/>
+          <a:ext cx="206188" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Прямая со стрелкой 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4598895" y="2187389"/>
+          <a:ext cx="152401" cy="125505"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4410635" y="1981200"/>
+          <a:ext cx="188259" cy="197225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Прямая со стрелкой 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4249271" y="1954306"/>
+          <a:ext cx="179294" cy="26895"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Прямая со стрелкой 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4016188" y="1945341"/>
+          <a:ext cx="215154" cy="26894"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>125507</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Прямая со стрелкой 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4805082" y="2545976"/>
+          <a:ext cx="215154" cy="17931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Прямая со стрелкой 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4598894" y="2366682"/>
+          <a:ext cx="251013" cy="179297"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53791</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Прямая со стрелкой 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4410635" y="2133600"/>
+          <a:ext cx="161368" cy="206192"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>71716</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Прямая со стрелкой 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4778187" y="2707341"/>
+          <a:ext cx="215154" cy="17931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>116543</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Прямая со стрелкой 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4625788" y="2528047"/>
+          <a:ext cx="197226" cy="188261"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>71720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Прямая со стрелкой 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4392706" y="2339788"/>
+          <a:ext cx="197226" cy="188261"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>107578</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Прямая со стрелкой 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4787153" y="2913529"/>
+          <a:ext cx="215154" cy="17931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98613</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107579</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Прямая со стрелкой 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4607859" y="2707341"/>
+          <a:ext cx="197225" cy="224120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>62755</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>62755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Прямая со стрелкой 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4383742" y="2474259"/>
+          <a:ext cx="197225" cy="224120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>80686</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Прямая со стрелкой 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4213412" y="2142565"/>
+          <a:ext cx="197227" cy="44827"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125509</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Прямая со стрелкой 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3908612" y="1264024"/>
+          <a:ext cx="134472" cy="179297"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Прямая со стрелкой 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4043083" y="1434353"/>
+          <a:ext cx="26893" cy="161365"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Прямая со стрелкой 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4222377" y="1819836"/>
+          <a:ext cx="44823" cy="179293"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Прямая со стрелкой 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4105836" y="1613648"/>
+          <a:ext cx="143435" cy="188258"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107578</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>116543</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>125508</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Прямая со стрелкой 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3872754" y="1030942"/>
+          <a:ext cx="8965" cy="224119"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Прямая со стрелкой 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4276165" y="2008094"/>
+          <a:ext cx="125505" cy="188258"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Прямая со стрелкой 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4392706" y="2196353"/>
+          <a:ext cx="17929" cy="179295"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3340,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3793,7 +4827,7 @@
       <c r="U10" s="53"/>
       <c r="V10" s="44"/>
       <c r="W10" s="69"/>
-      <c r="X10" s="42"/>
+      <c r="X10" s="70"/>
       <c r="Y10" s="46"/>
       <c r="Z10" s="46"/>
       <c r="AA10" s="46"/>

--- a/Docs/Прототип перекрестка большой.xlsx
+++ b/Docs/Прототип перекрестка большой.xlsx
@@ -2401,15 +2401,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>44825</xdr:colOff>
+      <xdr:colOff>6725</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2417,150 +2417,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4598895" y="2187389"/>
-          <a:ext cx="152401" cy="125505"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107578</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Прямая со стрелкой 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4410635" y="1981200"/>
-          <a:ext cx="188259" cy="197225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>98613</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Прямая со стрелкой 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4249271" y="1954306"/>
-          <a:ext cx="179294" cy="26895"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Прямая со стрелкой 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4016188" y="1945341"/>
-          <a:ext cx="215154" cy="26894"/>
+          <a:off x="4602480" y="2377888"/>
+          <a:ext cx="166745" cy="37652"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2635,16 +2494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>143436</xdr:colOff>
+      <xdr:colOff>158676</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>98614</xdr:rowOff>
+      <xdr:rowOff>106234</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2653,8 +2512,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4598894" y="2366682"/>
-          <a:ext cx="251013" cy="179297"/>
+          <a:off x="4472940" y="2575560"/>
+          <a:ext cx="257736" cy="7174"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2683,15 +2542,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>53791</xdr:colOff>
+      <xdr:colOff>53792</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>80686</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2699,9 +2558,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4410635" y="2133600"/>
-          <a:ext cx="161368" cy="206192"/>
+        <a:xfrm flipH="1">
+          <a:off x="4457700" y="2366687"/>
+          <a:ext cx="168092" cy="25993"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2777,15 +2636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>116543</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>116544</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2793,9 +2652,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4625788" y="2528047"/>
-          <a:ext cx="197226" cy="188261"/>
+        <a:xfrm flipH="1">
+          <a:off x="4686300" y="2747684"/>
+          <a:ext cx="192744" cy="33616"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2824,15 +2683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>71720</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80684</xdr:rowOff>
+      <xdr:colOff>117441</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2841,8 +2700,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4392706" y="2339788"/>
-          <a:ext cx="197226" cy="188261"/>
+          <a:off x="4442460" y="2766060"/>
+          <a:ext cx="246981" cy="57824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2871,13 +2730,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
+      <xdr:colOff>109989</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>107578</xdr:colOff>
+      <xdr:colOff>136885</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>107578</xdr:rowOff>
     </xdr:to>
@@ -2888,8 +2747,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4787153" y="2913529"/>
-          <a:ext cx="215154" cy="17931"/>
+          <a:off x="4945758" y="2991109"/>
+          <a:ext cx="220327" cy="17931"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2918,9 +2777,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
@@ -2935,8 +2794,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4607859" y="2707341"/>
-          <a:ext cx="197225" cy="224120"/>
+          <a:off x="4655820" y="2964180"/>
+          <a:ext cx="205293" cy="899"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2965,15 +2824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>53789</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>62755</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>62755</xdr:rowOff>
+      <xdr:colOff>85615</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116096</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2982,8 +2841,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4383742" y="2474259"/>
-          <a:ext cx="197225" cy="224120"/>
+          <a:off x="4465320" y="2941320"/>
+          <a:ext cx="192295" cy="32276"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3011,63 +2870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>71718</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>80686</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>116545</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Прямая со стрелкой 62"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4213412" y="2142565"/>
-          <a:ext cx="197227" cy="44827"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>143436</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>89649</xdr:colOff>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>125509</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3075,9 +2887,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3908612" y="1264024"/>
-          <a:ext cx="134472" cy="179297"/>
+        <a:xfrm flipV="1">
+          <a:off x="3886201" y="1264920"/>
+          <a:ext cx="30479" cy="182881"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3105,16 +2917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>93682</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>127747</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3123,8 +2935,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4043083" y="1434353"/>
-          <a:ext cx="26893" cy="161365"/>
+          <a:off x="3893820" y="1455420"/>
+          <a:ext cx="9862" cy="196327"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3152,63 +2964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>125507</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Прямая со стрелкой 71"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4222377" y="1819836"/>
-          <a:ext cx="44823" cy="179293"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3216,9 +2981,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4105836" y="1613648"/>
-          <a:ext cx="143435" cy="188258"/>
+        <a:xfrm flipV="1">
+          <a:off x="3901440" y="1623061"/>
+          <a:ext cx="15241" cy="182879"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3293,26 +3058,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>131332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="Прямая со стрелкой 84"/>
+        <xdr:cNvPr id="104" name="Прямая со стрелкой 103"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4276165" y="2008094"/>
-          <a:ext cx="125505" cy="188258"/>
+        <a:xfrm flipV="1">
+          <a:off x="3688080" y="1274332"/>
+          <a:ext cx="30479" cy="182881"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3340,26 +3105,496 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>86061</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Прямая со стрелкой 86"/>
+        <xdr:cNvPr id="105" name="Прямая со стрелкой 104"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4392706" y="2196353"/>
-          <a:ext cx="17929" cy="179295"/>
+          <a:off x="3695699" y="1464832"/>
+          <a:ext cx="9862" cy="196327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83819</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>108473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Прямая со стрелкой 105"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3703319" y="1632473"/>
+          <a:ext cx="15241" cy="182879"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99957</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>108922</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Прямая со стрелкой 106"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3719457" y="1051560"/>
+          <a:ext cx="8965" cy="226360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Прямая со стрелкой 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3489960" y="1266712"/>
+          <a:ext cx="30479" cy="182881"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68579</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Прямая со стрелкой 108"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3497579" y="1457212"/>
+          <a:ext cx="9862" cy="196327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Прямая со стрелкой 109"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3505199" y="1624853"/>
+          <a:ext cx="15241" cy="182879"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>92337</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>101302</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Прямая со стрелкой 110"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3521337" y="1043940"/>
+          <a:ext cx="8965" cy="226360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Прямая со стрелкой 111"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3322320" y="1266712"/>
+          <a:ext cx="30479" cy="182881"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Прямая со стрелкой 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3329939" y="1457212"/>
+          <a:ext cx="9862" cy="196327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Прямая со стрелкой 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3337559" y="1624853"/>
+          <a:ext cx="15241" cy="182879"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115197</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>124162</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Прямая со стрелкой 114"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3353697" y="1043940"/>
+          <a:ext cx="8965" cy="226360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4374,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Docs/Прототип перекрестка большой.xlsx
+++ b/Docs/Прототип перекрестка большой.xlsx
@@ -4610,7 +4610,7 @@
   <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
